--- a/Input/Variables.xlsx
+++ b/Input/Variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\Coop\BIBDA\升级指数优化\均衡指数优化\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\2178\Final_Paper\Final_Paper\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B8F5E-4606-481A-BAD5-C7BBF2EC21E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6EF22-D3E6-447E-826A-A829A110C4B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="17349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>年月</t>
   </si>
@@ -79,295 +79,6 @@
   </si>
   <si>
     <t>27_GDP</t>
-  </si>
-  <si>
-    <t>01/2013</t>
-  </si>
-  <si>
-    <t>02/2013</t>
-  </si>
-  <si>
-    <t>03/2013</t>
-  </si>
-  <si>
-    <t>04/2013</t>
-  </si>
-  <si>
-    <t>05/2013</t>
-  </si>
-  <si>
-    <t>06/2013</t>
-  </si>
-  <si>
-    <t>07/2013</t>
-  </si>
-  <si>
-    <t>08/2013</t>
-  </si>
-  <si>
-    <t>09/2013</t>
-  </si>
-  <si>
-    <t>10/2013</t>
-  </si>
-  <si>
-    <t>11/2013</t>
-  </si>
-  <si>
-    <t>12/2013</t>
-  </si>
-  <si>
-    <t>01/2014</t>
-  </si>
-  <si>
-    <t>02/2014</t>
-  </si>
-  <si>
-    <t>03/2014</t>
-  </si>
-  <si>
-    <t>04/2014</t>
-  </si>
-  <si>
-    <t>05/2014</t>
-  </si>
-  <si>
-    <t>06/2014</t>
-  </si>
-  <si>
-    <t>07/2014</t>
-  </si>
-  <si>
-    <t>08/2014</t>
-  </si>
-  <si>
-    <t>09/2014</t>
-  </si>
-  <si>
-    <t>10/2014</t>
-  </si>
-  <si>
-    <t>11/2014</t>
-  </si>
-  <si>
-    <t>12/2014</t>
-  </si>
-  <si>
-    <t>01/2015</t>
-  </si>
-  <si>
-    <t>02/2015</t>
-  </si>
-  <si>
-    <t>03/2015</t>
-  </si>
-  <si>
-    <t>04/2015</t>
-  </si>
-  <si>
-    <t>05/2015</t>
-  </si>
-  <si>
-    <t>06/2015</t>
-  </si>
-  <si>
-    <t>07/2015</t>
-  </si>
-  <si>
-    <t>08/2015</t>
-  </si>
-  <si>
-    <t>09/2015</t>
-  </si>
-  <si>
-    <t>10/2015</t>
-  </si>
-  <si>
-    <t>11/2015</t>
-  </si>
-  <si>
-    <t>12/2015</t>
-  </si>
-  <si>
-    <t>01/2016</t>
-  </si>
-  <si>
-    <t>02/2016</t>
-  </si>
-  <si>
-    <t>03/2016</t>
-  </si>
-  <si>
-    <t>04/2016</t>
-  </si>
-  <si>
-    <t>05/2016</t>
-  </si>
-  <si>
-    <t>06/2016</t>
-  </si>
-  <si>
-    <t>07/2016</t>
-  </si>
-  <si>
-    <t>08/2016</t>
-  </si>
-  <si>
-    <t>09/2016</t>
-  </si>
-  <si>
-    <t>10/2016</t>
-  </si>
-  <si>
-    <t>11/2016</t>
-  </si>
-  <si>
-    <t>12/2016</t>
-  </si>
-  <si>
-    <t>01/2017</t>
-  </si>
-  <si>
-    <t>02/2017</t>
-  </si>
-  <si>
-    <t>03/2017</t>
-  </si>
-  <si>
-    <t>04/2017</t>
-  </si>
-  <si>
-    <t>05/2017</t>
-  </si>
-  <si>
-    <t>06/2017</t>
-  </si>
-  <si>
-    <t>07/2017</t>
-  </si>
-  <si>
-    <t>08/2017</t>
-  </si>
-  <si>
-    <t>09/2017</t>
-  </si>
-  <si>
-    <t>10/2017</t>
-  </si>
-  <si>
-    <t>11/2017</t>
-  </si>
-  <si>
-    <t>12/2017</t>
-  </si>
-  <si>
-    <t>01/2018</t>
-  </si>
-  <si>
-    <t>02/2018</t>
-  </si>
-  <si>
-    <t>03/2018</t>
-  </si>
-  <si>
-    <t>04/2018</t>
-  </si>
-  <si>
-    <t>05/2018</t>
-  </si>
-  <si>
-    <t>06/2018</t>
-  </si>
-  <si>
-    <t>07/2018</t>
-  </si>
-  <si>
-    <t>08/2018</t>
-  </si>
-  <si>
-    <t>09/2018</t>
-  </si>
-  <si>
-    <t>10/2018</t>
-  </si>
-  <si>
-    <t>11/2018</t>
-  </si>
-  <si>
-    <t>12/2018</t>
-  </si>
-  <si>
-    <t>01/2019</t>
-  </si>
-  <si>
-    <t>02/2019</t>
-  </si>
-  <si>
-    <t>03/2019</t>
-  </si>
-  <si>
-    <t>04/2019</t>
-  </si>
-  <si>
-    <t>05/2019</t>
-  </si>
-  <si>
-    <t>06/2019</t>
-  </si>
-  <si>
-    <t>07/2019</t>
-  </si>
-  <si>
-    <t>08/2019</t>
-  </si>
-  <si>
-    <t>09/2019</t>
-  </si>
-  <si>
-    <t>10/2019</t>
-  </si>
-  <si>
-    <t>11/2019</t>
-  </si>
-  <si>
-    <t>12/2019</t>
-  </si>
-  <si>
-    <t>01/2020</t>
-  </si>
-  <si>
-    <t>02/2020</t>
-  </si>
-  <si>
-    <t>03/2020</t>
-  </si>
-  <si>
-    <t>04/2020</t>
-  </si>
-  <si>
-    <t>05/2020</t>
-  </si>
-  <si>
-    <t>06/2020</t>
-  </si>
-  <si>
-    <t>07/2020</t>
-  </si>
-  <si>
-    <t>08/2020</t>
-  </si>
-  <si>
-    <t>09/2020</t>
-  </si>
-  <si>
-    <t>10/2020</t>
-  </si>
-  <si>
-    <t>11/2020</t>
-  </si>
-  <si>
-    <t>12/2020</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>11_工业存货:产成品:电力、热力生产和供应业</t>
@@ -999,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1385,7 +1099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1428,22 +1142,22 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -1453,8 +1167,8 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="10">
+        <v>41275</v>
       </c>
       <c r="B2">
         <v>628.62571019999996</v>
@@ -1515,8 +1229,8 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="10">
+        <v>41306</v>
       </c>
       <c r="B3">
         <v>624.21666170000003</v>
@@ -1577,8 +1291,8 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="10">
+        <v>41334</v>
       </c>
       <c r="B4">
         <v>620.2132818</v>
@@ -1639,8 +1353,8 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>19</v>
+      <c r="A5" s="10">
+        <v>41365</v>
       </c>
       <c r="B5">
         <v>615.93885469999998</v>
@@ -1701,8 +1415,8 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
+      <c r="A6" s="10">
+        <v>41395</v>
       </c>
       <c r="B6">
         <v>611.45970980000004</v>
@@ -1763,8 +1477,8 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
+      <c r="A7" s="10">
+        <v>41426</v>
       </c>
       <c r="B7">
         <v>606.37736640000003</v>
@@ -1825,8 +1539,8 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" s="10">
+        <v>41456</v>
       </c>
       <c r="B8">
         <v>583.27491310000005</v>
@@ -1887,8 +1601,8 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
+      <c r="A9" s="10">
+        <v>41487</v>
       </c>
       <c r="B9">
         <v>555.67844090000006</v>
@@ -1949,8 +1663,8 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
+      <c r="A10" s="10">
+        <v>41518</v>
       </c>
       <c r="B10">
         <v>536.07280230000003</v>
@@ -2011,8 +1725,8 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A11" s="10">
+        <v>41548</v>
       </c>
       <c r="B11">
         <v>534.33361249999996</v>
@@ -2073,8 +1787,8 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>26</v>
+      <c r="A12" s="10">
+        <v>41579</v>
       </c>
       <c r="B12">
         <v>559.25116860000003</v>
@@ -2135,8 +1849,8 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>27</v>
+      <c r="A13" s="10">
+        <v>41609</v>
       </c>
       <c r="B13">
         <v>609.20347219999996</v>
@@ -2197,8 +1911,8 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>28</v>
+      <c r="A14" s="10">
+        <v>41640</v>
       </c>
       <c r="B14">
         <v>592.78107299999999</v>
@@ -2259,8 +1973,8 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>29</v>
+      <c r="A15" s="10">
+        <v>41671</v>
       </c>
       <c r="B15">
         <v>559.09407399999998</v>
@@ -2321,8 +2035,8 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>30</v>
+      <c r="A16" s="10">
+        <v>41699</v>
       </c>
       <c r="B16">
         <v>536.02294949999998</v>
@@ -2383,8 +2097,8 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>31</v>
+      <c r="A17" s="10">
+        <v>41730</v>
       </c>
       <c r="B17">
         <v>533.16527340000005</v>
@@ -2445,8 +2159,8 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>32</v>
+      <c r="A18" s="10">
+        <v>41760</v>
       </c>
       <c r="B18">
         <v>535.91181500000005</v>
@@ -2507,8 +2221,8 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>33</v>
+      <c r="A19" s="10">
+        <v>41791</v>
       </c>
       <c r="B19">
         <v>528.08077060000005</v>
@@ -2569,8 +2283,8 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>34</v>
+      <c r="A20" s="10">
+        <v>41821</v>
       </c>
       <c r="B20">
         <v>501.27047160000001</v>
@@ -2631,8 +2345,8 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>35</v>
+      <c r="A21" s="10">
+        <v>41852</v>
       </c>
       <c r="B21">
         <v>479.19257809999999</v>
@@ -2693,8 +2407,8 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>36</v>
+      <c r="A22" s="10">
+        <v>41883</v>
       </c>
       <c r="B22">
         <v>480.21035239999998</v>
@@ -2755,8 +2469,8 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>37</v>
+      <c r="A23" s="10">
+        <v>41913</v>
       </c>
       <c r="B23">
         <v>490.30347540000002</v>
@@ -2817,8 +2531,8 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>38</v>
+      <c r="A24" s="10">
+        <v>41944</v>
       </c>
       <c r="B24">
         <v>507.26678570000001</v>
@@ -2879,8 +2593,8 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>39</v>
+      <c r="A25" s="10">
+        <v>41974</v>
       </c>
       <c r="B25">
         <v>519.52041929999996</v>
@@ -2941,8 +2655,8 @@
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>40</v>
+      <c r="A26" s="10">
+        <v>42005</v>
       </c>
       <c r="B26">
         <v>512.35314530000005</v>
@@ -3003,8 +2717,8 @@
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>41</v>
+      <c r="A27" s="10">
+        <v>42036</v>
       </c>
       <c r="B27">
         <v>502.39092870000002</v>
@@ -3065,8 +2779,8 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>42</v>
+      <c r="A28" s="10">
+        <v>42064</v>
       </c>
       <c r="B28">
         <v>478.85652479999999</v>
@@ -3127,8 +2841,8 @@
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>43</v>
+      <c r="A29" s="10">
+        <v>42095</v>
       </c>
       <c r="B29">
         <v>445.43022389999999</v>
@@ -3189,8 +2903,8 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>44</v>
+      <c r="A30" s="10">
+        <v>42125</v>
       </c>
       <c r="B30">
         <v>415.10499829999998</v>
@@ -3251,8 +2965,8 @@
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>45</v>
+      <c r="A31" s="10">
+        <v>42156</v>
       </c>
       <c r="B31">
         <v>417.0939128</v>
@@ -3313,8 +3027,8 @@
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>46</v>
+      <c r="A32" s="10">
+        <v>42186</v>
       </c>
       <c r="B32">
         <v>415.16678769999999</v>
@@ -3375,8 +3089,8 @@
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>47</v>
+      <c r="A33" s="10">
+        <v>42217</v>
       </c>
       <c r="B33">
         <v>408.8674815</v>
@@ -3437,8 +3151,8 @@
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>48</v>
+      <c r="A34" s="10">
+        <v>42248</v>
       </c>
       <c r="B34">
         <v>398.92574409999997</v>
@@ -3499,8 +3213,8 @@
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>49</v>
+      <c r="A35" s="10">
+        <v>42278</v>
       </c>
       <c r="B35">
         <v>385.37741849999998</v>
@@ -3561,8 +3275,8 @@
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>50</v>
+      <c r="A36" s="10">
+        <v>42309</v>
       </c>
       <c r="B36">
         <v>373.72429319999998</v>
@@ -3623,8 +3337,8 @@
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>51</v>
+      <c r="A37" s="10">
+        <v>42339</v>
       </c>
       <c r="B37">
         <v>369.87150889999998</v>
@@ -3685,8 +3399,8 @@
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>52</v>
+      <c r="A38" s="10">
+        <v>42370</v>
       </c>
       <c r="B38">
         <v>372.9211474</v>
@@ -3747,8 +3461,8 @@
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="A39" s="10">
+        <v>42401</v>
       </c>
       <c r="B39">
         <v>381.28368189999998</v>
@@ -3809,8 +3523,8 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" t="s">
-        <v>54</v>
+      <c r="A40" s="10">
+        <v>42430</v>
       </c>
       <c r="B40">
         <v>387.94633750000003</v>
@@ -3871,8 +3585,8 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>55</v>
+      <c r="A41" s="10">
+        <v>42461</v>
       </c>
       <c r="B41">
         <v>388.20147739999999</v>
@@ -3933,8 +3647,8 @@
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" t="s">
-        <v>56</v>
+      <c r="A42" s="10">
+        <v>42491</v>
       </c>
       <c r="B42">
         <v>387.50111500000003</v>
@@ -3995,8 +3709,8 @@
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" t="s">
-        <v>57</v>
+      <c r="A43" s="10">
+        <v>42522</v>
       </c>
       <c r="B43">
         <v>398.20308069999999</v>
@@ -4057,8 +3771,8 @@
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>58</v>
+      <c r="A44" s="10">
+        <v>42552</v>
       </c>
       <c r="B44">
         <v>424.87340870000003</v>
@@ -4119,8 +3833,8 @@
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" t="s">
-        <v>59</v>
+      <c r="A45" s="10">
+        <v>42583</v>
       </c>
       <c r="B45">
         <v>475.02915100000001</v>
@@ -4181,8 +3895,8 @@
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>60</v>
+      <c r="A46" s="10">
+        <v>42614</v>
       </c>
       <c r="B46">
         <v>545.98282070000005</v>
@@ -4243,8 +3957,8 @@
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" t="s">
-        <v>61</v>
+      <c r="A47" s="10">
+        <v>42644</v>
       </c>
       <c r="B47">
         <v>598.74550220000003</v>
@@ -4305,8 +4019,8 @@
       </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" t="s">
-        <v>62</v>
+      <c r="A48" s="10">
+        <v>42675</v>
       </c>
       <c r="B48">
         <v>640.77981869999996</v>
@@ -4367,8 +4081,8 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" t="s">
-        <v>63</v>
+      <c r="A49" s="10">
+        <v>42705</v>
       </c>
       <c r="B49">
         <v>611.52390390000005</v>
@@ -4429,8 +4143,8 @@
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" t="s">
-        <v>64</v>
+      <c r="A50" s="10">
+        <v>42736</v>
       </c>
       <c r="B50">
         <v>595.89733790000003</v>
@@ -4491,8 +4205,8 @@
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" t="s">
-        <v>65</v>
+      <c r="A51" s="10">
+        <v>42767</v>
       </c>
       <c r="B51">
         <v>591.78516149999996</v>
@@ -4553,8 +4267,8 @@
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" t="s">
-        <v>66</v>
+      <c r="A52" s="10">
+        <v>42795</v>
       </c>
       <c r="B52">
         <v>624.94631560000005</v>
@@ -4615,8 +4329,8 @@
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" t="s">
-        <v>67</v>
+      <c r="A53" s="10">
+        <v>42826</v>
       </c>
       <c r="B53">
         <v>621.90498119999995</v>
@@ -4677,8 +4391,8 @@
       </c>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" t="s">
-        <v>68</v>
+      <c r="A54" s="10">
+        <v>42856</v>
       </c>
       <c r="B54">
         <v>585.4595223</v>
@@ -4739,8 +4453,8 @@
       </c>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" t="s">
-        <v>69</v>
+      <c r="A55" s="10">
+        <v>42887</v>
       </c>
       <c r="B55">
         <v>573.59848839999995</v>
@@ -4801,8 +4515,8 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" t="s">
-        <v>70</v>
+      <c r="A56" s="10">
+        <v>42917</v>
       </c>
       <c r="B56">
         <v>597.1255615</v>
@@ -4863,8 +4577,8 @@
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" t="s">
-        <v>71</v>
+      <c r="A57" s="10">
+        <v>42948</v>
       </c>
       <c r="B57">
         <v>597.41736630000003</v>
@@ -4925,8 +4639,8 @@
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>72</v>
+      <c r="A58" s="10">
+        <v>42979</v>
       </c>
       <c r="B58">
         <v>617.37124870000002</v>
@@ -4987,8 +4701,8 @@
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>73</v>
+      <c r="A59" s="10">
+        <v>43009</v>
       </c>
       <c r="B59">
         <v>624.33593800000006</v>
@@ -5049,8 +4763,8 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" t="s">
-        <v>74</v>
+      <c r="A60" s="10">
+        <v>43040</v>
       </c>
       <c r="B60">
         <v>608.60388579999994</v>
@@ -5111,8 +4825,8 @@
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" t="s">
-        <v>75</v>
+      <c r="A61" s="10">
+        <v>43070</v>
       </c>
       <c r="B61">
         <v>615.2187619</v>
@@ -5173,8 +4887,8 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" t="s">
-        <v>76</v>
+      <c r="A62" s="10">
+        <v>43101</v>
       </c>
       <c r="B62">
         <v>628.14914750000003</v>
@@ -5235,8 +4949,8 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" t="s">
-        <v>77</v>
+      <c r="A63" s="10">
+        <v>43132</v>
       </c>
       <c r="B63">
         <v>623.25692930000002</v>
@@ -5297,8 +5011,8 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" t="s">
-        <v>78</v>
+      <c r="A64" s="10">
+        <v>43160</v>
       </c>
       <c r="B64" s="2">
         <v>626.52472062279594</v>
@@ -5359,8 +5073,8 @@
       </c>
     </row>
     <row r="65" spans="1:20" s="6" customFormat="1">
-      <c r="A65" s="6" t="s">
-        <v>79</v>
+      <c r="A65" s="10">
+        <v>43191</v>
       </c>
       <c r="B65" s="7">
         <v>583.16170128545559</v>
@@ -5421,8 +5135,8 @@
       </c>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" t="s">
-        <v>80</v>
+      <c r="A66" s="10">
+        <v>43221</v>
       </c>
       <c r="B66" s="2">
         <v>654.82499923793819</v>
@@ -5483,8 +5197,8 @@
       </c>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" t="s">
-        <v>81</v>
+      <c r="A67" s="10">
+        <v>43252</v>
       </c>
       <c r="B67" s="2">
         <v>684.25053668115095</v>
@@ -5545,8 +5259,8 @@
       </c>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" t="s">
-        <v>82</v>
+      <c r="A68" s="10">
+        <v>43282</v>
       </c>
       <c r="B68" s="2">
         <v>648.41552398343572</v>
@@ -5607,8 +5321,8 @@
       </c>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" t="s">
-        <v>83</v>
+      <c r="A69" s="10">
+        <v>43313</v>
       </c>
       <c r="B69" s="2">
         <v>620.22016499095707</v>
@@ -5669,8 +5383,8 @@
       </c>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" t="s">
-        <v>84</v>
+      <c r="A70" s="10">
+        <v>43344</v>
       </c>
       <c r="B70" s="2">
         <v>637.04803992028735</v>
@@ -5731,8 +5445,8 @@
       </c>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" t="s">
-        <v>85</v>
+      <c r="A71" s="10">
+        <v>43374</v>
       </c>
       <c r="B71" s="2">
         <v>667.2788889912764</v>
@@ -5793,8 +5507,8 @@
       </c>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" t="s">
-        <v>86</v>
+      <c r="A72" s="10">
+        <v>43405</v>
       </c>
       <c r="B72" s="2">
         <v>630.99160321516001</v>
@@ -5855,8 +5569,8 @@
       </c>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" t="s">
-        <v>87</v>
+      <c r="A73" s="10">
+        <v>43435</v>
       </c>
       <c r="B73" s="2">
         <v>587.91675629923725</v>
@@ -5917,8 +5631,8 @@
       </c>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" t="s">
-        <v>88</v>
+      <c r="A74" s="10">
+        <v>43466</v>
       </c>
       <c r="B74" s="2">
         <v>591.98293318923118</v>
@@ -5979,8 +5693,8 @@
       </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" t="s">
-        <v>89</v>
+      <c r="A75" s="10">
+        <v>43497</v>
       </c>
       <c r="B75" s="2">
         <v>602.27638754458474</v>
@@ -6041,8 +5755,8 @@
       </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" t="s">
-        <v>90</v>
+      <c r="A76" s="10">
+        <v>43525</v>
       </c>
       <c r="B76" s="2">
         <v>624.3229231947671</v>
@@ -6103,8 +5817,8 @@
       </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" t="s">
-        <v>91</v>
+      <c r="A77" s="10">
+        <v>43556</v>
       </c>
       <c r="B77" s="2">
         <v>621.94827123167761</v>
@@ -6165,8 +5879,8 @@
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" t="s">
-        <v>92</v>
+      <c r="A78" s="10">
+        <v>43586</v>
       </c>
       <c r="B78" s="2">
         <v>617.89688368932627</v>
@@ -6227,8 +5941,8 @@
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" t="s">
-        <v>93</v>
+      <c r="A79" s="10">
+        <v>43617</v>
       </c>
       <c r="B79" s="2">
         <v>602.2027410439191</v>
@@ -6289,8 +6003,8 @@
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" t="s">
-        <v>94</v>
+      <c r="A80" s="10">
+        <v>43647</v>
       </c>
       <c r="B80" s="2">
         <v>593.68411424592648</v>
@@ -6351,8 +6065,8 @@
       </c>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" t="s">
-        <v>95</v>
+      <c r="A81" s="10">
+        <v>43678</v>
       </c>
       <c r="B81" s="2">
         <v>583.97048703531118</v>
@@ -6413,8 +6127,8 @@
       </c>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" t="s">
-        <v>96</v>
+      <c r="A82" s="10">
+        <v>43709</v>
       </c>
       <c r="B82" s="2">
         <v>585.56079909750633</v>
@@ -6475,8 +6189,8 @@
       </c>
     </row>
     <row r="83" spans="1:20">
-      <c r="A83" t="s">
-        <v>97</v>
+      <c r="A83" s="10">
+        <v>43739</v>
       </c>
       <c r="B83" s="2">
         <v>572.38119022872831</v>
@@ -6537,8 +6251,8 @@
       </c>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" t="s">
-        <v>98</v>
+      <c r="A84" s="10">
+        <v>43770</v>
       </c>
       <c r="B84" s="2">
         <v>549.70618898136934</v>
@@ -6599,8 +6313,8 @@
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" t="s">
-        <v>99</v>
+      <c r="A85" s="10">
+        <v>43800</v>
       </c>
       <c r="B85" s="2">
         <v>550.97423641652222</v>
@@ -6661,8 +6375,8 @@
       </c>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" t="s">
-        <v>100</v>
+      <c r="A86" s="10">
+        <v>43831</v>
       </c>
       <c r="B86" s="2">
         <v>561.00835507374586</v>
@@ -6723,8 +6437,8 @@
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" t="s">
-        <v>101</v>
+      <c r="A87" s="10">
+        <v>43862</v>
       </c>
       <c r="B87" s="2">
         <v>573.89688368932616</v>
@@ -6785,8 +6499,8 @@
       </c>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" t="s">
-        <v>102</v>
+      <c r="A88" s="10">
+        <v>43891</v>
       </c>
       <c r="B88" s="2">
         <v>545.69819057090046</v>
@@ -6847,8 +6561,8 @@
       </c>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" t="s">
-        <v>103</v>
+      <c r="A89" s="10">
+        <v>43922</v>
       </c>
       <c r="B89" s="2">
         <v>482.12494820664762</v>
@@ -6909,8 +6623,8 @@
       </c>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" t="s">
-        <v>104</v>
+      <c r="A90" s="10">
+        <v>43952</v>
       </c>
       <c r="B90" s="2">
         <v>545.77614471742118</v>
@@ -6971,8 +6685,8 @@
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" t="s">
-        <v>105</v>
+      <c r="A91" s="10">
+        <v>43983</v>
       </c>
       <c r="B91" s="2">
         <v>568.19747628605694</v>
@@ -7033,8 +6747,8 @@
       </c>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" t="s">
-        <v>106</v>
+      <c r="A92" s="10">
+        <v>44013</v>
       </c>
       <c r="B92" s="2">
         <v>578.34970106326239</v>
@@ -7095,8 +6809,8 @@
       </c>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" t="s">
-        <v>107</v>
+      <c r="A93" s="10">
+        <v>44044</v>
       </c>
       <c r="B93" s="2">
         <v>554.53214533131461</v>
@@ -7157,8 +6871,8 @@
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" t="s">
-        <v>108</v>
+      <c r="A94" s="10">
+        <v>44075</v>
       </c>
       <c r="B94" s="2">
         <v>594.21018166273609</v>
@@ -7219,8 +6933,8 @@
       </c>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" t="s">
-        <v>109</v>
+      <c r="A95" s="10">
+        <v>44105</v>
       </c>
       <c r="B95" s="2">
         <v>605.71432893302097</v>
@@ -7281,8 +6995,8 @@
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" t="s">
-        <v>110</v>
+      <c r="A96" s="10">
+        <v>44136</v>
       </c>
       <c r="B96" s="2">
         <v>623.00546538863443</v>
@@ -7343,8 +7057,8 @@
       </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" t="s">
-        <v>111</v>
+      <c r="A97" s="10">
+        <v>44166</v>
       </c>
       <c r="B97">
         <v>660.48874780843255</v>
